--- a/00.准备工作/02 体能训练计划.xlsx
+++ b/00.准备工作/02 体能训练计划.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{76EF1777-4C09-44DB-9BEA-163864947CD0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6DBDE3D0-916D-4361-BB22-201990483829}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="训练项目说明" sheetId="2" r:id="rId1"/>
-    <sheet name="第一周" sheetId="1" r:id="rId2"/>
+    <sheet name="第一月" sheetId="1" r:id="rId1"/>
+    <sheet name="第二月" sheetId="4" r:id="rId2"/>
+    <sheet name="Tabata" sheetId="2" r:id="rId3"/>
+    <sheet name="力量训练" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,75 +23,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>Day 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day 2</t>
-  </si>
-  <si>
-    <t>Day 3</t>
-  </si>
-  <si>
-    <t>Day 4</t>
-  </si>
-  <si>
-    <t>Day 5</t>
-  </si>
-  <si>
-    <t>Day 6</t>
-  </si>
-  <si>
-    <t>Day 7</t>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="38">
   <si>
     <t>训练内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>俯卧撑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上下运动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20个/组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30/组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
+    <t>Week1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>HIIT/Tabata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练单位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -97,7 +48,130 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tabata</t>
+    <t>快慢走</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉伸运动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量训练</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增大肌肉块的14大秘诀：大重量、低次数、多组数、长位移、慢速度、高密度、念动一致、顶峰收缩、持续紧张、组间放松、多练大肌群、训练后进食蛋白质、休息48小时、宁轻勿假。</t>
+  </si>
+  <si>
+    <t>13． 宁轻勿假：这是一个不是秘诀的秘诀。许多初学健美的人特别重视练习重量和动作次数，不太注意动作是否变形。健美训练的效果不仅仅取决于负重的重量和动作次数，而且还要看所练肌肉是否直接受力和受刺激的程度。如果动作变形或不到位，要练的肌肉没有或只是部分受力，训练效果就不大，甚至出偏差。事实上，在所有的法则中，动作的正确性永远是第一重要的。宁可用正确的动作举起比较轻的重量，也不要用不标准的动作举起更重的重量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1． 大重量、低次数：健美理论中用RM表示某个负荷量能连续做的最高重复次数。比如，练习者对一个重量只能连续举起5次，则该重量就是5RM。研究表明：1-5RM的负荷训练能使肌肉增粗，发展力量和速度；6-10RM的负荷训练能使肌肉粗大，力量速度提高，但耐力增长不明显；10-15RM的负荷训练肌纤维增粗不明显，但力量、速度、耐力均有长进；30RM的负荷训练肌肉内毛细血管增多，耐久力提高，但力量、速度提高不明显。可见，5-10RM的负荷重量适用于增大肌肉体积的健美训练。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2． 多组数：什么时候想起来要锻炼了，就做上2～3组，这其实是浪费时间，根本不能长肌肉。必须专门抽出60～90分钟的时间集中锻炼某个部位，每个动作都做8～10组，才能充分刺激肌肉，同时肌肉需要的恢复时间越长。一直做到肌肉饱和为止，"饱和度"要自我感受，其适度的标准是：酸、胀、发麻、坚实、饱满、扩张，以及肌肉外形上的明显粗壮等。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3． 长位移：不管是划船、卧推、推举、弯举，都要首先把哑铃放得尽量低，以充分拉伸肌肉，再举得尽量高。这一条与"持续紧张"有时会矛盾，解决方法是快速地通过"锁定"状态。不过，我并不否认大重量的半程运动的作用。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4． 慢速度：慢慢地举起，在慢慢地放下，对肌肉的刺激更深。特别是，在放下哑铃时，要控制好速度，做退让性练习，能够充分刺激肌肉。很多人忽视了退让性练习，把哑铃举起来就算完成了任务，很快地放下，浪费了增大肌肉的大好时机。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5． 高密度："密度"指的是两组之间的休息时间，只休息1分钟或更少时间称为高密度。要使肌肉块迅速增大，就要少休息，频繁地刺激肌肉。"多组数"也是建立在"高密度"的基础上的。锻炼时，要象打仗一样，全神贯注地投入训练，不去想别的事。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6． 念动一致：肌肉的工作是受神经支配的，注意力密度集中就能动员更多的肌纤维参加工作。练某一动作时，就应有意识地使意念和动作一致起来，即练什么就想什么肌肉工作。例如：练立式弯举，就要低头用双眼注视自已的双臂，看肱二头肌在慢慢地收缩。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">7． 顶峰收缩：这是使肌肉线条练得十分明显的一项主要法则。它要求当某个动作做到肌肉收缩最紧张的位置时，保持一下这种收缩最紧张的状态，做静力性练习，然后慢慢回复到动作的开始位置。我的方法是感觉肌肉最紧张时，数1～6，再放下来。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8． 持续紧张：应在整个一组中保持肌肉持续紧张，不论在动作的开头还是结尾，都不要让它松弛（不处于"锁定"状态），总是达到彻底力竭。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9． 组间放松：每做完一组动作都要伸展放松。这样能增加肌肉的血流量，还有助于排除沉积在肌肉里的废物，加快肌肉的恢复，迅速补充营养。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10． 多练大肌群：多练胸、背、腰臀、腿部的大肌群，不仅能使身体强壮，还能够促进其他部位肌肉的生长。有的人为了把胳膊练粗，只练胳膊而不练其他部位，反而会使二头肌的生长十分缓慢。建议你安排一些使用大重量的大型复合动作练习，如大重量的深蹲练习，它们能促进所有其他部位肌肉的生长。这一点极其重要，可悲的是至少有90％的人都没有足够重视，以致不能达到期望的效果。因此，在训练计划里要多安排硬拉、深蹲、卧推、推举、引体向上这5个经典复合动作。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11． 训练后进食蛋白质：在训练后的30～90分钟里，蛋白质的需求达高峰期，此时补充蛋白质效果最佳。但不要训练完马上吃东西，至少要隔20分钟。 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12． 休息48小时：局部肌肉训练一次后需要休息48～72小时才能进行第二次训练。如果进行高强度力量训练，则局部肌肉两次训练的间隔72小时也不够，尤其是大肌肉块。不过腹肌例外，腹肌不同于其他肌群，必须经常对其进行刺激，每星期至少要练4次，每次约15分钟；选三个对你最有效的练习，只做3组，每组20—25次，均做到力竭；每组间隔时间要短，不能超过1分钟。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -136,17 +210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF006100"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -166,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -189,6 +263,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -200,25 +311,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -242,15 +353,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>152211</xdr:rowOff>
+      <xdr:rowOff>144591</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -280,7 +391,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="45720" y="7620"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="5440680" cy="3474531"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -565,10 +676,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BF5D7B-2679-4E78-8C04-F24E461F3DB1}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33AF82-E693-49B6-9B87-74014CDB3ED9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -581,220 +1172,389 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BB9270-74D9-4E81-9D8F-28D7E667B3AF}">
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="9" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:23" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" s="9" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" s="9" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" s="9" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+    </row>
+    <row r="13" spans="1:23" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" s="9" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="13">
+    <mergeCell ref="A14:W14"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="A9:W9"/>
+    <mergeCell ref="A10:W10"/>
+    <mergeCell ref="A11:W11"/>
+    <mergeCell ref="A12:W12"/>
+    <mergeCell ref="A13:W13"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
+    <mergeCell ref="A7:W7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00.准备工作/02 体能训练计划.xlsx
+++ b/00.准备工作/02 体能训练计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6DBDE3D0-916D-4361-BB22-201990483829}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5580B6AE-A10B-4849-B358-DBC14618A97D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一月" sheetId="1" r:id="rId1"/>
@@ -317,6 +317,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,7 +330,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -717,7 +717,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -729,7 +729,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -767,7 +767,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -791,7 +791,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -803,7 +803,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -841,7 +841,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -853,7 +853,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -867,7 +867,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -891,7 +891,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -957,7 +957,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -981,7 +981,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1007,7 +1007,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1031,7 +1031,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1043,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1057,7 +1057,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1093,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33AF82-E693-49B6-9B87-74014CDB3ED9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -1182,364 +1182,370 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="9" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:23" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="1:23" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:23" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+    </row>
+    <row r="5" spans="1:23" s="5" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-    </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" s="5" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-    </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" s="5" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" s="9" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="1:23" s="5" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-    </row>
-    <row r="9" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-    </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-    </row>
-    <row r="11" spans="1:23" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:23" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-    </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" s="9" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" s="5" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
     <mergeCell ref="A14:W14"/>
     <mergeCell ref="A8:W8"/>
     <mergeCell ref="A9:W9"/>
@@ -1547,12 +1553,6 @@
     <mergeCell ref="A11:W11"/>
     <mergeCell ref="A12:W12"/>
     <mergeCell ref="A13:W13"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
-    <mergeCell ref="A7:W7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.准备工作/02 体能训练计划.xlsx
+++ b/00.准备工作/02 体能训练计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5580B6AE-A10B-4849-B358-DBC14618A97D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F8C5F835-36C6-4328-9F4F-529481B40B9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,10 +358,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144591</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>124464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -392,7 +392,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5440680" cy="3474531"/>
+          <a:ext cx="7879080" cy="5031744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,7 +1167,7 @@
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1540,12 +1540,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A7:W7"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="A5:W5"/>
-    <mergeCell ref="A6:W6"/>
     <mergeCell ref="A14:W14"/>
     <mergeCell ref="A8:W8"/>
     <mergeCell ref="A9:W9"/>
@@ -1553,6 +1547,12 @@
     <mergeCell ref="A11:W11"/>
     <mergeCell ref="A12:W12"/>
     <mergeCell ref="A13:W13"/>
+    <mergeCell ref="A7:W7"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="A3:W3"/>
+    <mergeCell ref="A4:W4"/>
+    <mergeCell ref="A5:W5"/>
+    <mergeCell ref="A6:W6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
